--- a/CoParticipacaoWebService/src/test/resources/muito-facil/input/MUITO-FACIL.NAO-LOCALIZADO.201808.002.xlsx
+++ b/CoParticipacaoWebService/src/test/resources/muito-facil/input/MUITO-FACIL.NAO-LOCALIZADO.201808.002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="8CH5Y" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t xml:space="preserve">MATRICULA</t>
   </si>
@@ -35,7 +35,10 @@
     <t xml:space="preserve">NOME TITULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">MAYARA SANTANA BRITO</t>
+    <t xml:space="preserve">HELOISA PIASSALI DE CASTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISLAINE PIASSALI DE CASTRO</t>
   </si>
 </sst>
 </file>
@@ -51,6 +54,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -81,7 +85,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +96,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,7 +139,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -139,6 +149,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -151,6 +165,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -161,15 +235,16 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="27.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -189,16 +264,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>1501</v>
+        <v>21671</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>2366781598</v>
+      <c r="C2" s="3" t="n">
+        <v>5534467037</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -219,7 +294,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
